--- a/2025-11-14_副本.xlsx
+++ b/2025-11-14_副本.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080"/>
+    <workbookView windowWidth="27660" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1372,8 +1372,8 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1852,9 +1852,6 @@
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>65</v>
-      </c>
-      <c r="B67">
-        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:2">
